--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BF/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BF/10/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>5.890999999999996</v>
+        <v>5.834599999999997</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>13.78730000000001</v>
+        <v>13.59290000000001</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.09769999999999</v>
+        <v>12.9632</v>
       </c>
     </row>
     <row r="6">
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.524199999999992</v>
+        <v>6.765399999999996</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>14.27829999999999</v>
+        <v>14.0748</v>
       </c>
     </row>
     <row r="9">
@@ -703,7 +703,7 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>9.178700000000005</v>
+        <v>8.975600000000009</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -712,7 +712,7 @@
         <v>-4.8</v>
       </c>
       <c r="E16" t="n">
-        <v>12.6086</v>
+        <v>12.56310000000001</v>
       </c>
     </row>
     <row r="17">
